--- a/academias/Administración de Recursos Humanos - Estadisticos 20242.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20242.xlsx
@@ -887,13 +887,13 @@
         <v>23.3</v>
       </c>
       <c r="I12" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -957,10 +957,10 @@
         <v>7.6</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1155,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1229,25 +1229,25 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1264,25 +1264,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>15.4</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1299,25 +1299,25 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1331,25 +1331,25 @@
         <v>94</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1366,25 +1366,25 @@
         <v>49</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1398,25 +1398,25 @@
         <v>49</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1535,25 +1535,25 @@
         <v>49</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1570,25 +1570,25 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>6.7</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1605,25 +1605,25 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1637,25 +1637,25 @@
         <v>119</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>10.9</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J14">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1672,25 +1672,25 @@
         <v>40</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1707,25 +1707,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>89.7</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1739,25 +1739,25 @@
         <v>79</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J17">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1774,25 +1774,25 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1806,25 +1806,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1835,25 +1835,25 @@
         <v>396</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F20">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>81.3</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>18.7</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J20">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>
@@ -1924,19 +1924,19 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H2" s="1">
-        <v>40</v>
+        <v>33.3</v>
       </c>
       <c r="I2" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>15.4</v>
       </c>
       <c r="I3" s="2">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1994,19 +1994,19 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2026,19 +2026,19 @@
         <v>94</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>79.8</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1">
-        <v>20.2</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2230,19 +2230,19 @@
         <v>49</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>79.59999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>20.4</v>
+        <v>18.4</v>
       </c>
       <c r="I11" s="2">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2265,25 +2265,25 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>76.7</v>
+        <v>93.3</v>
       </c>
       <c r="H12" s="1">
-        <v>23.3</v>
+        <v>6.7</v>
       </c>
       <c r="I12" s="2">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2300,19 +2300,19 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2332,25 +2332,25 @@
         <v>119</v>
       </c>
       <c r="E14">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
-        <v>83.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>16.8</v>
+        <v>10.9</v>
       </c>
       <c r="I14" s="2">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2367,19 +2367,19 @@
         <v>40</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>10.3</v>
       </c>
       <c r="I16" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2434,19 +2434,19 @@
         <v>79</v>
       </c>
       <c r="E17">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>93.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="I17" s="2">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2469,19 +2469,19 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2530,25 +2530,25 @@
         <v>396</v>
       </c>
       <c r="E20">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F20">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="H20" s="1">
-        <v>12.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I20" s="2">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Administración de Recursos Humanos - Estadisticos 20242.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20242.xlsx
@@ -1433,25 +1433,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>6.7</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1468,25 +1468,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1500,25 +1500,25 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1835,25 +1835,25 @@
         <v>396</v>
       </c>
       <c r="E20">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="F20">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1">
-        <v>81.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>18.7</v>
+        <v>9.1</v>
       </c>
       <c r="I20" s="2">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2140,7 @@
         <v>6.7</v>
       </c>
       <c r="I8" s="2">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2195,19 +2195,19 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>396</v>
       </c>
       <c r="E20">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="I20" s="2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J20">
         <v>0</v>
